--- a/TestData/LV_T2279_TMTI0036293_ApproveEventExpenseFormAsSecondLevelApproverSet2.xlsx
+++ b/TestData/LV_T2279_TMTI0036293_ApproveEventExpenseFormAsSecondLevelApproverSet2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786C30CE-8791-4066-8C5D-DEE18D114B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF05CA1-9DC8-43F1-B208-58BF0A58EB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -179,10 +179,10 @@
     <t>Vijay Kumar</t>
   </si>
   <si>
-    <t>Bingo@1234567</t>
-  </si>
-  <si>
     <t>FVATestOpportunity Admin</t>
+  </si>
+  <si>
+    <t>Bingo@12345</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -742,7 +742,7 @@
         <v>17</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>48</v>
@@ -798,7 +798,7 @@
         <v>17</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>48</v>
@@ -854,7 +854,7 @@
         <v>17</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>48</v>
@@ -910,7 +910,7 @@
         <v>17</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>48</v>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +958,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -969,7 +969,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -980,7 +980,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -991,7 +991,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -1004,9 +1004,9 @@
     <hyperlink ref="A3" r:id="rId3" xr:uid="{9611F415-59B6-42E8-B992-4BDF4D2EA082}"/>
     <hyperlink ref="A4" r:id="rId4" tooltip="mailto:klulla@hl.com.test" display="mailto:klulla@hl.com.test" xr:uid="{37F6AA7D-E662-440D-B4E4-A870523B1294}"/>
     <hyperlink ref="A5" r:id="rId5" tooltip="mailto:klulla@hl.com.test" display="mailto:klulla@hl.com.test" xr:uid="{E27BE1ED-8298-4193-B17A-83CF275488FA}"/>
-    <hyperlink ref="B3" r:id="rId6" xr:uid="{2961AF1D-45CC-4354-ABBC-9ED635AFD7A5}"/>
-    <hyperlink ref="B4" r:id="rId7" xr:uid="{8B128E76-56CA-45AC-9D74-EEDA70F11F9C}"/>
-    <hyperlink ref="B5" r:id="rId8" xr:uid="{E617EEB0-C5C7-4702-8D28-DE243C9F3BEB}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{ECB58323-0D40-4F6C-B781-320EB2DF6C14}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{E281D89F-C695-4859-A2A5-EF0363983236}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{13CC86D8-B484-497B-903C-1E08ACDD73E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1040,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -1051,7 +1051,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -1062,7 +1062,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -1073,7 +1073,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -1084,9 +1084,9 @@
     <hyperlink ref="A3" r:id="rId1" xr:uid="{43CB4C96-EF8E-466C-A098-71C8B71DE9CE}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{F09A18C6-7321-4E0E-B9D9-D9B996CDFDA6}"/>
     <hyperlink ref="B2" r:id="rId3" xr:uid="{98E92ADE-69BD-431C-844E-19278F764E87}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{F457BBE0-EB1F-40A6-AC57-B14495C32F5A}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{3C00A7D2-F7C5-42C5-9BD2-67CF45BBA308}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{D893734E-2417-4627-9147-A67EBBB12DF3}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{3448DA0F-E398-4DF8-A666-2ABB6CC42FFA}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{735B8645-492D-4A0C-BD49-E214809C7C47}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{5D00EDA9-2BAB-40F9-8800-EA2889BBC935}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
